--- a/BCI-data/Tree_data_reduced.xlsx
+++ b/BCI-data/Tree_data_reduced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaly\Google Drive\Projects\Tree_dynamics\bci_spatial_analysis\Final_publish2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengjunyuan/Documents/NUS Work/Y2S2 (Current)/SP3172 Integrated Science Project/December Phase/SP3172/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3C2E3E-F26C-46FF-8164-11074551051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5691DF48-C90B-7C40-960F-6D0CE2D823B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="0" windowWidth="26055" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="26060" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bci spplist" sheetId="1" r:id="rId1"/>
@@ -1719,33 +1719,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N83" sqref="N83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="18.796875" customWidth="1"/>
-    <col min="7" max="7" width="14.9296875" customWidth="1"/>
-    <col min="8" max="8" width="18.9296875" customWidth="1"/>
-    <col min="9" max="9" width="22.53125" customWidth="1"/>
-    <col min="10" max="10" width="27.19921875" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="22.9296875" customWidth="1"/>
-    <col min="13" max="13" width="24.19921875" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" customWidth="1"/>
-    <col min="15" max="15" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>265</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>151</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>170</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>177</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>198</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>200</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>208</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>212</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>213</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>216</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>218</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>221</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>225</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>232</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>233</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>237</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>245</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>248</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>250</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>256</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>258</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>261</v>
       </c>
@@ -4666,6 +4666,18 @@
       </c>
       <c r="O83">
         <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <f>AVERAGE(E2:E83)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <f>AVERAGE(K2:K85)</f>
+        <v>27.431580384042807</v>
       </c>
     </row>
   </sheetData>
